--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_22-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_22-01.xlsx
@@ -62,6 +62,12 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
+    <t>LOPRANEST 2 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -408,6 +414,9 @@
   </si>
   <si>
     <t>SINGULAIR 4 MG PAED. 14 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>SPASCOLON 50MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -1305,17 +1314,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>114</v>
+        <v>35.890000000000001</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1323,7 +1332,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1331,13 +1340,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1357,17 +1366,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>119.5</v>
+        <v>24</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1375,7 +1384,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1383,17 +1392,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>71.5</v>
+        <v>119.5</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1415,11 +1424,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>105</v>
+        <v>71.5</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1435,17 +1444,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1461,13 +1470,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1487,17 +1496,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1519,11 +1528,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1545,7 +1554,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1571,7 +1580,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1597,7 +1606,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1617,13 +1626,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1643,13 +1652,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1669,17 +1678,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1695,17 +1704,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>16.5</v>
+        <v>156</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1721,13 +1730,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1739,7 +1748,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1747,17 +1756,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>26.449999999999999</v>
+        <v>44</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1765,7 +1774,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1773,13 +1782,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>49</v>
+        <v>26.449999999999999</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1799,17 +1808,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>550</v>
+        <v>49</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1851,17 +1860,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>-96.75</v>
+        <v>40</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1869,7 +1878,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1877,17 +1886,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>198</v>
+        <v>-96.75</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1903,17 +1912,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1921,7 +1930,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1929,17 +1938,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1955,17 +1964,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>444</v>
+        <v>102</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1981,17 +1990,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>55</v>
+        <v>444</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -2007,17 +2016,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>85.5</v>
+        <v>55</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -2039,7 +2048,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>150</v>
+        <v>85.5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -2059,17 +2068,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2091,11 +2100,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2111,17 +2120,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2137,17 +2146,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2163,17 +2172,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2189,17 +2198,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2215,17 +2224,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2241,17 +2250,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2259,7 +2268,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2267,13 +2276,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2293,13 +2302,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2319,17 +2328,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2337,7 +2346,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2345,17 +2354,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2371,13 +2380,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2397,17 +2406,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2423,17 +2432,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2449,13 +2458,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2475,13 +2484,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2507,11 +2516,11 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2527,17 +2536,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2553,17 +2562,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2579,13 +2588,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2605,17 +2614,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2623,7 +2632,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2631,13 +2640,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2657,17 +2666,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2675,7 +2684,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2683,17 +2692,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2709,17 +2718,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2735,13 +2744,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2753,7 +2762,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2761,17 +2770,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2787,17 +2796,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2805,7 +2814,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2813,17 +2822,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2839,13 +2848,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2865,13 +2874,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2901,7 +2910,7 @@
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2917,17 +2926,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2943,13 +2952,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2969,13 +2978,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2995,13 +3004,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -3021,17 +3030,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -3047,17 +3056,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3079,11 +3088,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3099,17 +3108,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3117,7 +3126,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3125,17 +3134,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3143,7 +3152,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3151,17 +3160,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3177,17 +3186,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3203,13 +3212,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3229,13 +3238,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3255,13 +3264,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>136.5</v>
+        <v>279</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3281,17 +3290,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3307,13 +3316,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>380</v>
+        <v>136.5</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3333,17 +3342,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3359,13 +3368,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3385,13 +3394,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3417,7 +3426,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3437,13 +3446,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3463,13 +3472,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3489,17 +3498,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>44.619999999999997</v>
+        <v>80</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3515,13 +3524,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3541,17 +3550,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>37</v>
+        <v>44.619999999999997</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3573,7 +3582,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3593,17 +3602,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3611,7 +3620,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3619,13 +3628,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3637,7 +3646,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3645,17 +3654,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>43.649999999999999</v>
+        <v>141</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3671,13 +3680,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3697,17 +3706,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>14.1</v>
+        <v>43.649999999999999</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3715,7 +3724,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3723,17 +3732,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3741,7 +3750,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3749,17 +3758,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>60</v>
+        <v>14.1</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3775,17 +3784,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>33.600000000000001</v>
+        <v>65</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3801,17 +3810,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3819,7 +3828,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3833,7 +3842,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>138</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3845,7 +3854,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3853,17 +3862,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3871,7 +3880,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3879,17 +3888,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3897,7 +3906,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3905,13 +3914,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3923,7 +3932,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3931,13 +3940,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>149.5</v>
+        <v>39</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3949,7 +3958,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3957,17 +3966,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3975,7 +3984,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3983,17 +3992,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4009,13 +4018,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>28</v>
+        <v>149.5</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -4035,17 +4044,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4061,17 +4070,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4087,17 +4096,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4113,13 +4122,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4145,7 +4154,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4165,17 +4174,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4183,7 +4192,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4197,7 +4206,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4209,7 +4218,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4217,17 +4226,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4235,7 +4244,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4243,17 +4252,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>97.019999999999996</v>
+        <v>288</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>9</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4275,7 +4284,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4295,17 +4304,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4321,13 +4330,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>18</v>
+        <v>97.019999999999996</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4347,13 +4356,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4373,17 +4382,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4399,17 +4408,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4425,17 +4434,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4443,7 +4452,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4451,17 +4460,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4469,7 +4478,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4477,17 +4486,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>42.280000000000001</v>
+        <v>26</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4495,7 +4504,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4503,17 +4512,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4521,7 +4530,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4529,17 +4538,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4547,7 +4556,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4555,17 +4564,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>120</v>
+        <v>42.280000000000001</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4581,13 +4590,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>23.5</v>
+        <v>63</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
@@ -4599,7 +4608,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4607,13 +4616,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
@@ -4625,7 +4634,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4633,13 +4642,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
@@ -4651,7 +4660,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4659,13 +4668,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>120</v>
+        <v>23.5</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
@@ -4685,17 +4694,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4703,7 +4712,7 @@
         <v>136</v>
       </c>
       <c t="s" r="B139" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4711,17 +4720,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>25.98</v>
+        <v>50</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4729,7 +4738,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4737,17 +4746,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4755,7 +4764,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4763,17 +4772,17 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -4781,7 +4790,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4789,17 +4798,17 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>5</v>
+        <v>25.98</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
-        <v>11</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4815,17 +4824,17 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1">
@@ -4833,7 +4842,7 @@
         <v>141</v>
       </c>
       <c t="s" r="B144" s="7">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -4841,13 +4850,13 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
@@ -4859,7 +4868,7 @@
         <v>142</v>
       </c>
       <c t="s" r="B145" s="7">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -4867,17 +4876,17 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" ht="24.75" customHeight="1">
@@ -4885,7 +4894,7 @@
         <v>143</v>
       </c>
       <c t="s" r="B146" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -4893,13 +4902,13 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
@@ -4911,7 +4920,7 @@
         <v>144</v>
       </c>
       <c t="s" r="B147" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4919,13 +4928,13 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
@@ -4937,7 +4946,7 @@
         <v>145</v>
       </c>
       <c t="s" r="B148" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -4945,17 +4954,17 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" ht="24.75" customHeight="1">
@@ -4963,7 +4972,7 @@
         <v>146</v>
       </c>
       <c t="s" r="B149" s="7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -4971,7 +4980,7 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c t="s" r="H149" s="8">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
@@ -4989,7 +4998,7 @@
         <v>147</v>
       </c>
       <c t="s" r="B150" s="7">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -4997,13 +5006,13 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
@@ -5015,7 +5024,7 @@
         <v>148</v>
       </c>
       <c t="s" r="B151" s="7">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5023,13 +5032,13 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
@@ -5041,7 +5050,7 @@
         <v>149</v>
       </c>
       <c t="s" r="B152" s="7">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5049,13 +5058,13 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
@@ -5067,7 +5076,7 @@
         <v>150</v>
       </c>
       <c t="s" r="B153" s="7">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5075,13 +5084,13 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
@@ -5093,7 +5102,7 @@
         <v>151</v>
       </c>
       <c t="s" r="B154" s="7">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -5101,51 +5110,129 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" ht="26.25" customHeight="1">
-      <c r="K155" s="10">
-        <v>13057.450000000001</v>
-      </c>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-    </row>
-    <row r="156" ht="16.5" customHeight="1">
-      <c t="s" r="A156" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" ht="25.5" customHeight="1">
+      <c r="A155" s="6">
+        <v>152</v>
+      </c>
+      <c t="s" r="B155" s="7">
         <v>200</v>
       </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c t="s" r="F156" s="12">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c t="s" r="H155" s="8">
+        <v>8</v>
+      </c>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="9">
+        <v>20</v>
+      </c>
+      <c r="M155" s="9"/>
+      <c t="s" r="N155" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" ht="24.75" customHeight="1">
+      <c r="A156" s="6">
+        <v>153</v>
+      </c>
+      <c t="s" r="B156" s="7">
         <v>201</v>
       </c>
-      <c r="G156" s="12"/>
-      <c r="H156" s="13"/>
-      <c t="s" r="I156" s="14">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c t="s" r="H156" s="8">
+        <v>81</v>
+      </c>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="9">
+        <v>30</v>
+      </c>
+      <c r="M156" s="9"/>
+      <c t="s" r="N156" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="A157" s="6">
+        <v>154</v>
+      </c>
+      <c t="s" r="B157" s="7">
         <v>202</v>
       </c>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="14"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c t="s" r="H157" s="8">
+        <v>12</v>
+      </c>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="9">
+        <v>300</v>
+      </c>
+      <c r="M157" s="9"/>
+      <c t="s" r="N157" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" ht="25.5" customHeight="1">
+      <c r="K158" s="10">
+        <v>13211.34</v>
+      </c>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+    </row>
+    <row r="159" ht="17.25" customHeight="1">
+      <c t="s" r="A159" s="11">
+        <v>203</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c t="s" r="F159" s="12">
+        <v>204</v>
+      </c>
+      <c r="G159" s="12"/>
+      <c r="H159" s="13"/>
+      <c t="s" r="I159" s="14">
+        <v>205</v>
+      </c>
+      <c r="J159" s="14"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="464">
+  <mergeCells count="473">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5606,10 +5693,19 @@
     <mergeCell ref="B154:G154"/>
     <mergeCell ref="H154:K154"/>
     <mergeCell ref="L154:M154"/>
-    <mergeCell ref="K155:N155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="I156:N156"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="I159:N159"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
